--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/91.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/91.xlsx
@@ -479,13 +479,13 @@
         <v>-6.840616267080259</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.69205439868299</v>
+        <v>-10.69247335237393</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.983021638166047</v>
+        <v>-4.014796657162916</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.8414641176001</v>
+        <v>-6.799045056392907</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-5.999928672701687</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.0506918504264</v>
+        <v>-11.05046928127809</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.018868363346693</v>
+        <v>-4.057084795341691</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.841176086937582</v>
+        <v>-6.804805669643266</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-5.076273014812774</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.88255058838399</v>
+        <v>-11.88372889563974</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.775901407209941</v>
+        <v>-3.809260594850659</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.67466817939651</v>
+        <v>-6.63811446986241</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-4.193582303454488</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.74052847051082</v>
+        <v>-12.73728157940607</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.855122931705225</v>
+        <v>-3.897725285152202</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.024402865207538</v>
+        <v>-6.982690788353798</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-3.358356439131837</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.46027781923471</v>
+        <v>-13.4524617144382</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.610480160804732</v>
+        <v>-3.651982760813003</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.578505215024031</v>
+        <v>-6.542802505174644</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-2.602689755102817</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.15159068618637</v>
+        <v>-14.14326398157904</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.659890511729406</v>
+        <v>-3.706171802274907</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.750053659159168</v>
+        <v>-6.71487464142345</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-1.922537148415174</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.77308230208311</v>
+        <v>-14.76006855305844</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.488734836679521</v>
+        <v>-3.5299886829338</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.424513548999649</v>
+        <v>-6.400371342559507</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-1.323545941432084</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.687304717218</v>
+        <v>-15.67334832238872</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.330592910654312</v>
+        <v>-3.373692771609274</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.194075926682428</v>
+        <v>-6.183772284345991</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.7829757195271588</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.33918356801038</v>
+        <v>-16.32504388094132</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.317042377213125</v>
+        <v>-3.36289162176485</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.7633260708868</v>
+        <v>-5.75012902962234</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.283976265550077</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.88646801140022</v>
+        <v>-16.86262692792543</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.175017075986081</v>
+        <v>-3.21718738343928</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.532692064026953</v>
+        <v>-5.517950131027169</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1970940265853961</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.5067813200412</v>
+        <v>-17.48618712767116</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.30456541260496</v>
+        <v>-3.339469491981002</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.937227946179568</v>
+        <v>-4.921661198100756</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.6902944246456544</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.3983540512599</v>
+        <v>-18.38024739642979</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.081839156661517</v>
+        <v>-3.117646604933637</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.288910201760134</v>
+        <v>-4.275176376079164</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>1.212961599751644</v>
       </c>
       <c r="E14" t="n">
-        <v>-19.11903295348555</v>
+        <v>-19.10827108054966</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.964741600045119</v>
+        <v>-3.000876355888282</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.742686234900482</v>
+        <v>-3.717928690226778</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>1.787630680047993</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.89095512903372</v>
+        <v>-19.87216767445585</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.888662228231848</v>
+        <v>-2.926721552592746</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.144629841090435</v>
+        <v>-3.120526911558817</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>2.426403707864795</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.75871296138333</v>
+        <v>-20.73227960194588</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.874601094979834</v>
+        <v>-2.918329386471199</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.553577829300711</v>
+        <v>-2.51761327339449</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>3.124741106225591</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.47508449597405</v>
+        <v>-21.44650399887056</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.795392662787392</v>
+        <v>-2.839094769673074</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.132542462213643</v>
+        <v>-2.097075413815407</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>3.874549708310977</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.38654443520934</v>
+        <v>-22.35486106233236</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.697004006931821</v>
+        <v>-2.743219835963113</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.897077395605199</v>
+        <v>-1.868680190741496</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>4.645992884743517</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.23069684553531</v>
+        <v>-23.19792681152247</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.714796446493726</v>
+        <v>-2.757006030855451</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.439815626555075</v>
+        <v>-1.400617271846947</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>5.402639963970389</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.02741584266571</v>
+        <v>-23.99722499231269</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.49447917427316</v>
+        <v>-2.53490820544841</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.1956179939512</v>
+        <v>-1.163122898298036</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>6.104744768775887</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.4832243661004</v>
+        <v>-24.44913200950054</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.33648126357921</v>
+        <v>-2.37516901847651</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.8054804615706049</v>
+        <v>-0.7727366121634481</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>6.70741465445609</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.1456817975889</v>
+        <v>-25.11178582553167</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.133458923412563</v>
+        <v>-2.166516988087922</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.6386452464584896</v>
+        <v>-0.6208004376852171</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>7.179672366859645</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.71363898716582</v>
+        <v>-25.68093441466718</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.129295571108895</v>
+        <v>-2.161607374522275</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.2758313501085769</v>
+        <v>-0.2486124525006284</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>7.499548255373977</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.15156342491871</v>
+        <v>-26.11918615999112</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.081430111919544</v>
+        <v>-2.108518086499076</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.3121886751000502</v>
+        <v>-0.2894866219724972</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>7.658934519577495</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.42798121481608</v>
+        <v>-26.39525045771176</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.735007778727472</v>
+        <v>-1.760681784600097</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2889629298588282</v>
+        <v>-0.2692590140820304</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>7.66723654201359</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.34818362899576</v>
+        <v>-26.31324027271119</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.641450182620498</v>
+        <v>-1.662057467293375</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.4481653324142171</v>
+        <v>-0.4286839857857287</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>7.542554388350559</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.28391351434572</v>
+        <v>-26.23801190058263</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.716953493108732</v>
+        <v>-1.736212270588911</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.395743751835946</v>
+        <v>-0.3844974636949032</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>7.313827684980081</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.44079857929813</v>
+        <v>-26.40243813197187</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.433662244219464</v>
+        <v>-1.453235236967844</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.7285500900726226</v>
+        <v>-0.7188879705754287</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>7.009251325286226</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.36845051379474</v>
+        <v>-26.32135750047306</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.350683228808604</v>
+        <v>-1.365385884899862</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.7972454030831593</v>
+        <v>-0.7906076055424042</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>6.656695531581194</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.17537832378781</v>
+        <v>-26.13263195500958</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.430467722326082</v>
+        <v>-1.445104916903132</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9361285516281894</v>
+        <v>-0.9315724302392687</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>6.278881881495794</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.83576398807344</v>
+        <v>-25.79486363399588</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.344608400290043</v>
+        <v>-1.358198210639754</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.415228281818313</v>
+        <v>-1.413487005540364</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>5.887603049152856</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.85922539476581</v>
+        <v>-25.8132845040942</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.180247630415014</v>
+        <v>-1.191323718619114</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.716311970269488</v>
+        <v>-1.709006465283804</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>5.490446508747744</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.50558920270795</v>
+        <v>-25.46188709582227</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.15404993242872</v>
+        <v>-1.162743221515626</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.220771491064035</v>
+        <v>-2.211109371566841</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>5.083314581035492</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.9445578413343</v>
+        <v>-24.90943119280995</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.178192138868863</v>
+        <v>-1.184450259627208</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.320888330894714</v>
+        <v>-2.314512379410793</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>4.66104438559237</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.53715156150547</v>
+        <v>-24.49725931474673</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.346807907167453</v>
+        <v>-1.352254305149611</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.522797825319814</v>
+        <v>-2.522549071565821</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>4.221248408747992</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.88302083462431</v>
+        <v>-23.84657186351295</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.345655784517381</v>
+        <v>-1.351390213162057</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.703929835135094</v>
+        <v>-2.711379355452036</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>3.758551255690128</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.11903259459823</v>
+        <v>-23.08551629932341</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.329656990444791</v>
+        <v>-1.332930066155223</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.847421474280411</v>
+        <v>-2.846557382292857</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>3.280174502369848</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.72978533881087</v>
+        <v>-22.70087753413634</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.40352376307781</v>
+        <v>-1.408276269009357</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.165341864186045</v>
+        <v>-3.160026389232304</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>2.791821965507545</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.10792713843457</v>
+        <v>-22.06765521489342</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.308944967349181</v>
+        <v>-1.318109579338389</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.395858040320316</v>
+        <v>-3.38928570429377</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>2.301004023290039</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.61966279625523</v>
+        <v>-21.57962653416524</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.475714720947088</v>
+        <v>-1.485874347952267</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.627251400744983</v>
+        <v>-3.620574326295702</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.821208815015749</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.13365033016468</v>
+        <v>-21.11508544473511</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.380900263767307</v>
+        <v>-1.396414642634753</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.627906015887069</v>
+        <v>-3.622878571595846</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.359515047018748</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.33111835057255</v>
+        <v>-20.29617499428799</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.104011150967643</v>
+        <v>-1.121476282958505</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.743340850042568</v>
+        <v>-3.734699930167029</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.9259538924051981</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.49161370775539</v>
+        <v>-19.46976265431255</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.113188855259693</v>
+        <v>-1.129907725988577</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.880377983886914</v>
+        <v>-3.873347417260907</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5263984684559453</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.06898107972163</v>
+        <v>-19.04546730381789</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.130064833622678</v>
+        <v>-1.149258149588648</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.10925762216597</v>
+        <v>-4.099975179451186</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1599616877647115</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.57160449476446</v>
+        <v>-18.55504273166968</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.120507452548218</v>
+        <v>-1.138823584223792</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.21734767442726</v>
+        <v>-4.211259753605858</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.1706492580888533</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.10593746728995</v>
+        <v>-18.0975453011684</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.085210604086924</v>
+        <v>-1.103029228254513</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.343518196912974</v>
+        <v>-4.34507618095114</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.4695703152814926</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.35235760802304</v>
+        <v>-17.33796916719998</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.173203971486165</v>
+        <v>-1.194190932941452</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.658374987953644</v>
+        <v>-4.653949789593141</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.7398531678189899</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.51171393485865</v>
+        <v>-16.49407860293084</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.100777352165736</v>
+        <v>-1.120415806428326</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.60008805570228</v>
+        <v>-4.602025716522856</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.9812993709442558</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.86242736002893</v>
+        <v>-15.85750465416044</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.036428683698653</v>
+        <v>-1.063883242757752</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.83666596805227</v>
+        <v>-4.833654738398673</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-1.196495470216694</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.9917761287513</v>
+        <v>-14.97785901083055</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.000621235426532</v>
+        <v>-1.023833888364912</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.955033478044315</v>
+        <v>-4.954784724290323</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-1.383479100776327</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.19226847111562</v>
+        <v>-14.18221358253317</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.002401788613007</v>
+        <v>-1.024841995683725</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.141952285715639</v>
+        <v>-5.139281455935927</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-1.541275627609687</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.49560085230169</v>
+        <v>-13.47223109172921</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9462619940276854</v>
+        <v>-0.9703780158621448</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.046352290365355</v>
+        <v>-5.040486938692261</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-1.669838688827286</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.79322498944877</v>
+        <v>-12.7726831662901</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9370450128271103</v>
+        <v>-0.9645388487947349</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.124722815175927</v>
+        <v>-5.120075047667115</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-1.7671059929752</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.42461120293997</v>
+        <v>-12.40691040949796</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.135262477850843</v>
+        <v>-1.16208860637354</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.296938966755992</v>
+        <v>-5.290942692054482</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-1.835084266982111</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.73844361100511</v>
+        <v>-11.72694856911007</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.222339384051163</v>
+        <v>-1.250514019766557</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.773472605589137</v>
+        <v>-5.769558007039461</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-1.875926545529622</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.31654415193049</v>
+        <v>-11.30427666416779</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.233677318312098</v>
+        <v>-1.263789614848068</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.905770325804779</v>
+        <v>-5.902379419368772</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-1.893815752131936</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.54030151644455</v>
+        <v>-10.52970984344559</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.222077537994328</v>
+        <v>-1.252464772889975</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.364393694350444</v>
+        <v>-6.359065127093861</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-1.894468272484081</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.08208400928698</v>
+        <v>-10.06223607817892</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.420216449201011</v>
+        <v>-1.453470898418995</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.214683211355306</v>
+        <v>-6.204877076526853</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-1.881649935372074</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.505773930497037</v>
+        <v>-9.492524520021211</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.411025652606119</v>
+        <v>-1.443101794568348</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.441363342756951</v>
+        <v>-6.429959946981807</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-1.858190414549331</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.220610482301403</v>
+        <v>-9.204611688228812</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.492472868584497</v>
+        <v>-1.52245424209205</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.327853077119186</v>
+        <v>-6.312927851879618</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-1.824236200199859</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.601056527225241</v>
+        <v>-8.575827659649235</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.568565332700609</v>
+        <v>-1.603678888922118</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.725139006851363</v>
+        <v>-6.719967547228881</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-1.779768682866926</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.029394215944114</v>
+        <v>-8.002856118083935</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.490561392369605</v>
+        <v>-1.52147231937892</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.596310746888779</v>
+        <v>-6.587512719379139</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-1.725868139906691</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.563701003863918</v>
+        <v>-7.539506428212408</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.472258352996872</v>
+        <v>-1.509283385433273</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.666380751697696</v>
+        <v>-6.654453663808884</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-1.663759399698809</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.157289739051057</v>
+        <v>-7.12468990497516</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.616273684255859</v>
+        <v>-1.651635994231361</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.840010871984668</v>
+        <v>-6.830191644853373</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-1.5967903484449</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.726513698649745</v>
+        <v>-6.694935064195501</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.502684864801043</v>
+        <v>-1.536305898498596</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.006126010440489</v>
+        <v>-7.005641595235344</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-1.528247850430262</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.481687635509467</v>
+        <v>-6.453539184399756</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.664440266410569</v>
+        <v>-1.695757054807978</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.041619243444408</v>
+        <v>-7.037678460289048</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-1.462078557768332</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.353055760089508</v>
+        <v>-6.320154803048251</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.655773161929346</v>
+        <v>-1.686788827361395</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.100613160049225</v>
+        <v>-7.093163639732283</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-1.400985473911571</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.078392338772937</v>
+        <v>-6.045020058829378</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.596046076365392</v>
+        <v>-1.618879052521362</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.050757670827933</v>
+        <v>-7.04876764079599</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-1.343884332670764</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.98602614222456</v>
+        <v>-5.950061586318339</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.872149650994553</v>
+        <v>-1.898936502608724</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.081851890077032</v>
+        <v>-7.082912366607212</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-1.289759936015889</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.889522777978197</v>
+        <v>-5.848831900746112</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.82403543805121</v>
+        <v>-1.848151459885669</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.824876169899633</v>
+        <v>-6.823501478101251</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-1.235158198681224</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.63013807407792</v>
+        <v>-5.586763274763282</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.839576001524339</v>
+        <v>-1.862225685440525</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.725845991204817</v>
+        <v>-6.728346621047586</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.17546922672922</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.726170115421981</v>
+        <v>-5.676720487588781</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.920813740657249</v>
+        <v>-1.943332501545018</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.539228306498853</v>
+        <v>-6.545172211988997</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.106151028101768</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.798230150262841</v>
+        <v>-5.748544860978491</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.008872569570698</v>
+        <v>-2.030972376767532</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.374134367664688</v>
+        <v>-6.378847596687709</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.020212738477059</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.997809214782113</v>
+        <v>-5.950467447706432</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.870356005505236</v>
+        <v>-1.892246335856602</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.263530593257785</v>
+        <v>-6.276518157676778</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.9132524859260486</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.154144403015164</v>
+        <v>-6.102822575875599</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.134781245999578</v>
+        <v>-2.150662209346592</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.120209154049411</v>
+        <v>-6.13204459581833</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.7799578507800685</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.633924932953057</v>
+        <v>-6.581778290734463</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.111306747004363</v>
+        <v>-2.132647200636376</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.879991581509421</v>
+        <v>-5.896304590850211</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.615181248599916</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.089929840930377</v>
+        <v>-7.04512798060599</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.165142296289541</v>
+        <v>-2.184741473643605</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.938880759691505</v>
+        <v>-5.951920693321863</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4181962010958562</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.575340061090213</v>
+        <v>-7.52996213944079</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.11310039249368</v>
+        <v>-2.135540599564398</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.565357359617059</v>
+        <v>-5.580033831102634</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1861779021497792</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.967742561862426</v>
+        <v>-7.926305423368363</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.154105484993965</v>
+        <v>-2.169554402347202</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.404047096304152</v>
+        <v>-5.418775937001095</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.08003033626632072</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.34960575884705</v>
+        <v>-8.304581329374354</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.418321248642839</v>
+        <v>-2.435734011422335</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.01248250291381</v>
+        <v>-5.025417698121434</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.3780328744074634</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.25161305543061</v>
+        <v>-9.211131655043992</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.34133850793349</v>
+        <v>-2.360584193110828</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.00270255269104</v>
+        <v>-5.020049853956327</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.7057942102051977</v>
       </c>
       <c r="E82" t="n">
-        <v>-9.9804615546295</v>
+        <v>-9.945950244338709</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.430497090285645</v>
+        <v>-2.450305744485176</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.833117953982162</v>
+        <v>-4.850216501493456</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>1.054437807046872</v>
       </c>
       <c r="E83" t="n">
-        <v>-10.73223467610425</v>
+        <v>-10.70064294934717</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.506105139196613</v>
+        <v>-2.51595055093359</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.505758013727644</v>
+        <v>-4.524270529945844</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>1.413550422981264</v>
       </c>
       <c r="E84" t="n">
-        <v>-11.87428934529086</v>
+        <v>-11.84057666547341</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.583716310442365</v>
+        <v>-2.597751259088695</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.399121207081785</v>
+        <v>-4.418942953584158</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>1.769344094541504</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.6867714750427</v>
+        <v>-12.65472151768615</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.726762811291064</v>
+        <v>-2.740640652303294</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.032078496913995</v>
+        <v>-4.054531796287555</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>2.103920773079933</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.72262138357722</v>
+        <v>-13.6874423658415</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.823619667714153</v>
+        <v>-2.836698878253038</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.721555258113936</v>
+        <v>-3.737187467706957</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>2.403283322918491</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.71960024497466</v>
+        <v>-14.68523295001513</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.8596235005289</v>
+        <v>-2.871118542423936</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.267684395499818</v>
+        <v>-3.287335942065249</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>2.653388096205584</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.07621157313147</v>
+        <v>-16.04945090612298</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.759166260824336</v>
+        <v>-2.776736131237932</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.018210564850728</v>
+        <v>-3.037220588576914</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>2.844576845248371</v>
       </c>
       <c r="E89" t="n">
-        <v>-17.50484365922062</v>
+        <v>-17.47321265555501</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.004660031409541</v>
+        <v>-3.015919411853426</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.753366370665451</v>
+        <v>-2.768317780510702</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>2.972127660136396</v>
       </c>
       <c r="E90" t="n">
-        <v>-18.97429754557027</v>
+        <v>-18.94380557225189</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.200232851259246</v>
+        <v>-3.213652461672015</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.631738877265816</v>
+        <v>-2.642828057772758</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>3.03308773943832</v>
       </c>
       <c r="E91" t="n">
-        <v>-20.59474496059355</v>
+        <v>-20.57065512336477</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.405585621331719</v>
+        <v>-3.423639906950459</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.697331314502863</v>
+        <v>-2.703131204661748</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>3.029372872578313</v>
       </c>
       <c r="E92" t="n">
-        <v>-22.07323253590399</v>
+        <v>-22.04707411482622</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.42615362909607</v>
+        <v>-3.434886195091502</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.582407080158192</v>
+        <v>-2.5932344146083</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>2.965295918673498</v>
       </c>
       <c r="E93" t="n">
-        <v>-24.06552753623797</v>
+        <v>-24.03885851534938</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.62472458629653</v>
+        <v>-3.646706562767787</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.555764243875279</v>
+        <v>-2.564365886842294</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>2.84821636350929</v>
       </c>
       <c r="E94" t="n">
-        <v>-26.23306301010846</v>
+        <v>-26.20877678833705</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.432202273008948</v>
+        <v>-3.451814542665853</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.710462894253115</v>
+        <v>-2.721774643908366</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>2.690024068508354</v>
       </c>
       <c r="E95" t="n">
-        <v>-28.40927868076301</v>
+        <v>-28.38377487482732</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.929906165537164</v>
+        <v>-3.954310218034142</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.937182302563285</v>
+        <v>-2.94192171619199</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>2.498913630377904</v>
       </c>
       <c r="E96" t="n">
-        <v>-30.459310736629</v>
+        <v>-30.42778447138612</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.910843772599611</v>
+        <v>-3.935326378913639</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.270499240610789</v>
+        <v>-3.275395761873594</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>2.290611806574836</v>
       </c>
       <c r="E97" t="n">
-        <v>-32.73057652591448</v>
+        <v>-32.69504401600204</v>
       </c>
       <c r="F97" t="n">
-        <v>-4.071538697678957</v>
+        <v>-4.09060109061651</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.354591101763196</v>
+        <v>-3.359592361448735</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>2.065773215099021</v>
       </c>
       <c r="E98" t="n">
-        <v>-35.22816895442488</v>
+        <v>-35.19693071984452</v>
       </c>
       <c r="F98" t="n">
-        <v>-4.345128550162507</v>
+        <v>-4.369087464362865</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.782486835539329</v>
+        <v>-3.783455665949616</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>1.843568766664242</v>
       </c>
       <c r="E99" t="n">
-        <v>-37.62694068108593</v>
+        <v>-37.59740444587499</v>
       </c>
       <c r="F99" t="n">
-        <v>-4.20657270918852</v>
+        <v>-4.225045948498195</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.169456030632226</v>
+        <v>-4.175923628236039</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>1.609789166969934</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.24764003321707</v>
+        <v>-40.21983198198125</v>
       </c>
       <c r="F100" t="n">
-        <v>-4.32429869634132</v>
+        <v>-4.344788150288622</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.42009507623423</v>
+        <v>-4.426628135352251</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>1.393422147973438</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.68634328354539</v>
+        <v>-42.6601455855591</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.479403208107249</v>
+        <v>-4.499931938963075</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.927303980625539</v>
+        <v>-4.937437423025036</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>1.138985568000145</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.05533002124152</v>
+        <v>-45.02642221656698</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.57005431298336</v>
+        <v>-4.589077429012388</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.139045794484775</v>
+        <v>-5.142397424012257</v>
       </c>
     </row>
   </sheetData>
